--- a/Sergio i Dome/Informe pràctica A.xlsx
+++ b/Sergio i Dome/Informe pràctica A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergio/Desktop/University/5nto/LACE/LACE/Sergio i Dome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF494790-E8D5-6740-A1DD-5911F3CE1C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1A678E-59D9-1E48-9637-2FECD4213E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{C1122783-245A-4FED-BDEB-F09B1698DCDF}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Càlculs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
   <si>
     <t>Informe pràctica A</t>
   </si>
@@ -299,76 +298,76 @@
     <t>int.confiança (ppm)</t>
   </si>
   <si>
-    <t>En aquesta pràctica utilitzem un espectrofotòmetre d’absorció atòmica per detectar la presència de coure. L’equip emprat és el model 55 AA de la marca Agilent, que permet la atomització de la mostra mitjançant una flama.
-La font de llum utilitzada és un tub de càtode buit multielemental, que conté el mateix metall que volem analitzar, en aquest cas, coure. La llum emesa per aquest tub travessa la flama on s’ha atomitzat la mostra, i posteriorment arriba a un detector, que mesura l’absorbància a una longitud d’ona específica corresponent a una de les línies espectrals del coure.
-L’absorbància es calcula comparant la intensitat de la llum abans i després de passar per la flama. Com que només s’estan emetent les línies espectrals pròpies del coure, podem relacionar directament l’absorbància amb la concentració de l’analit. Això ens permet aplicar mètodes de calibratge basats en la relació lineal entre absorbància i concentració, tal com estableix la llei de Beer-Lambert, que és el principi en què es basa aquesta pràctica.
-Per garantir un funcionament òptim de l’equip, cal mantenir-lo lliure de pols i residus sòlids. El tub de plàstic que s’utilitza per aspirar les solucions de mostra i de patró és molt fi, i pot obstruir-se fàcilment. Si es detecta una senyal anormalment baixa, és recomanable canviar aquest tub per assegurar un bon flux de la solució. A més, quan no s’estigui fent cap anàlisi, és convenient deixar el tub immers en un vas amb aigua, per evitar l’entrada de pols a l’interior del sistema.</t>
-  </si>
-  <si>
-    <t>La mostra analitzada és un orujo comercial, concretament un “aguardiente de orujo” de la marca Pazo de Usía, amb un contingut alcohòlic del 40% en volum. El producte no especifica la concentració de coure present i pertany al lot L-I 5003.
-El coure pot estar present en aquest tipus de begudes degut al fet que sovint es fan servir tubs de coure en el procés de destil·lació, la qual cosa comporta una contaminació mínima però inevitable. Segons el Reial decret 14/16/1982, la concentració màxima permesa de coure en aiguardents com l’orujo és de 10 ppm. Tot i això, els nivells de coure s’han reduït considerablement en els darrers anys gràcies a millores en els processos de fabricació.
-Per dur a terme la quantificació de coure a la mostra, utilitzarem patrons preparats a partir de sulfat de coure pentahidratat, la concentració del qual s’ha determinat mitjançant tres valoracions amb EDTA. L’anàlisi es farà aplicant diversos mètodes de calibratge, amb l’objectiu de comparar-ne la sensibilitat, la incertesa i l’eficiència analítica.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Reial decret 14/16/1982, de 28 de maig,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pel qual s'aprova la Reglamentació tecnicosanitària per a l'elaboració, la circulació i el comerç d'aiguardents compostos, licors, aperitius sense vi base i altres begudes derivades d'alcohols naturals. 
-(Font: Boletín Oficial del Estado; https://www.boe.es/eli/es/rd/1982/05/28/1416)
-3.1 (2) Estar exentos de materias extrañas a la composición legal y/o tradicional del producto y no contener residuos de metales pesados en cantidades mayores de las que se citan.
-Aguardiente - Cobre (en p.p.m.): 10
-2.1.2. A efectos de esta Reglamentación, se consideran como aguardientes compuestos, los aguardientes de frutas, hierbas, cereales, leguminosas, tubérculos, de orujo, etc.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">però com que no podem donar-ho per fet, realitzarem una valoració per determinar amb exactitud la quantitat de </t>
-  </si>
-  <si>
-    <t xml:space="preserve">coure present en el patró. Per aquest motiu, és essencial que, durant el pesatge del reactiu, el recipient es torni </t>
-  </si>
-  <si>
-    <t>a tancar de seguida i correctament, ja que l’exposició a l’aire pot alterar el seu grau d’hidratació i afectar la precisió de les mesures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquesta estimació parteix de la hipòtesi que el sulfat de coure està completament en forma pentahidratada, </t>
-  </si>
-  <si>
-    <t>Durant la realització de les mesures, l’espectrofotòmetre d’absorció atòmica (AAS) fa tres replicats per a cada solució analitzada. Tot i que el procés no és especialment lent, cal actuar amb agilitat, ja que un cop es connecta la solució a l’equip, aquesta comença a consumir-se immediatament. Si es triga massa a iniciar la lectura, es corre el risc de malgastar o esgotar la solució abans de mesurar-la. Encara que això no ha representat un problema en el nostre cas, sí que ha estat un aspecte rellevant a tenir en compte durant l’operació amb l’AAS.
-Per optimitzar el procediment i minimitzar errors, es recomana treballar en parelles: una persona pot gestionar les solucions mentre l’altra controla el programari i inicia les mesures, cosa que permet agilitzar el procés i assegurar l’ús correcte de cada mostra. El programari de l’equip, a més, segueix una seqüència predefinida que guia l’usuari en l’anàlisi del blanc, dels patrons en ordre i, finalment, de la mostra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La informació del calibratge amb patró extern i interferent s'ha extret de les dades d'uns companys. Donada la falta de temps, només el primer equip que havia fet la seva mesura del calibratge de patrons externs (sense interferents) ha tingut temps a preparar la mostra amb interferents.				
-				</t>
-  </si>
-  <si>
-    <t>Els patrons s’han preparat a partir d’un patró principal obtingut pesant 0,9818 g de sulfat de coure pentahidratat. Les valoracions amb EDTA van donar volums de 15,5; 15,4 i 15,4 mL, i a partir d’aquests valors s’ha calculat que la concentració de coure és de 980,7 ppm. Aquesta concentració es pot verificar i calcular utilitzant les primeres files del mateix full de càlcul Excel.</t>
-  </si>
-  <si>
-    <t>La recta de regressió obtinguda presenta un ajust lineal excel·lent (R² = 1,000). El interval de confiança és reduït, com era previsible, ja que el mètode d’addició estàndard considera l’efecte matriu, fet que el converteix en la tècnica que ofereix els resultats més precisos. No obstant això, no és el mètode més eficient, ja que requereix preparar múltiples patrons i un temps considerable d’anàlisi amb l’equip.</t>
-  </si>
-  <si>
-    <t>En primer lloc, s’ha observat que els pendents obtinguts amb el calibratge extern, tant amb com sense interferent, són similars. Com que la mostra conté un 40% d’etanol, a diferència dels patrons externs sense interferents, sospitàvem que aquest component podia influir en la mesura quantitativa, per exemple, mitjançant canvis en la viscositat. Tot i així, no s’han detectat diferències significatives en el pendent, si bé en el cas dels patrons amb interferent l’interval de confiança és més ampli.
-L’objectiu de treballar amb patrons externs amb interferents era combinar els avantatges dels dos mètodes principals: la simplicitat i eficiència dels patrons externs, i la consideració de l’efecte matriu pròpia del mètode d’addició estàndard. Aquest enfocament ens hauria de permetre fer menys mesures (amb una única recta de calibratge), però incorporant l’efecte matriu mitjançant l’addició d’un interferent.
-Tanmateix, el resultat no ha estat l’esperat, ja que l’interferent utilitzat no ha modificat apreciablement la corba de calibratge. Això podria deure’s a una selecció inadequada de l’interferent o a una preparació incorrecta dels patrons. Per validar aquesta hipòtesi, caldria provar una nova formulació de l’interferent o repetir l’experiment amb el mateix etanol afegit, per descartar errors experimentals.
-A causa de la limitació de temps durant la pràctica, només un dels quatre grups de treball va poder preparar i analitzar els patrons amb interferents, fet que ens impedeix identificar amb certesa la font de l’error. Si s’aconseguís identificar un interferent eficaç que reproduís l’efecte matriu, aquest mètode seria l’opció més òptima. No obstant això, com que només es disposa d’una única mostra per analitzar, el mètode d’addició estàndard continua sent una alternativa molt adequada.
-És destacable, en qualsevol cas, que els resultats obtinguts amb tots els mètodes han estat coherents i molt similars, i que l’addició estàndard ha mostrat el menor interval de confiança, cosa que indica una major precisió en els resultats.</t>
-  </si>
-  <si>
-    <t>Cal fer molts càlculs!!!!</t>
+    <t>0.2±0.1</t>
+  </si>
+  <si>
+    <t>S_{xx}_1</t>
+  </si>
+  <si>
+    <t>S_{xx}_2</t>
+  </si>
+  <si>
+    <t>t_{exp}</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>Apliquem el test t per a pendents:</t>
+  </si>
+  <si>
+    <t>(S_{y/x})02</t>
+  </si>
+  <si>
+    <t>S_{b1-b2}</t>
+  </si>
+  <si>
+    <t>iii) Càlcul de l'estadístic t</t>
+  </si>
+  <si>
+    <t>Test F</t>
+  </si>
+  <si>
+    <t>S_{y/x}_1</t>
+  </si>
+  <si>
+    <t>n_1</t>
+  </si>
+  <si>
+    <t>dof_1</t>
+  </si>
+  <si>
+    <t>S_{y/x}_2</t>
+  </si>
+  <si>
+    <t>n_2</t>
+  </si>
+  <si>
+    <t>dof_2</t>
+  </si>
+  <si>
+    <t>F_{crítica}</t>
+  </si>
+  <si>
+    <t>Valor tabulat a un nivell de confiança del 95%</t>
+  </si>
+  <si>
+    <t>F_{exp}</t>
+  </si>
+  <si>
+    <t>m_1</t>
+  </si>
+  <si>
+    <t>m_2</t>
+  </si>
+  <si>
+    <t>Vesviació estàndard de la diferència entre els pendents</t>
+  </si>
+  <si>
+    <t>Variància mitjana:</t>
+  </si>
+  <si>
+    <t>Descripció de la mostra (repetit)</t>
   </si>
 </sst>
 </file>
@@ -430,13 +429,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -450,6 +442,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -633,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -698,8 +696,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -715,14 +713,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,50 +764,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,8 +887,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.6111111111111108E-2"/>
-          <c:y val="3.0697494702403509E-2"/>
+          <c:x val="6.9075280740223927E-2"/>
+          <c:y val="2.5124931385914571E-2"/>
           <c:w val="0.89825699912510937"/>
           <c:h val="0.77435945854835175"/>
         </c:manualLayout>
@@ -1469,13 +1482,13 @@
                   <c:v>4.0099999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.43E-2</c:v>
+                  <c:v>8.0299999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.15640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2233</c:v>
+                  <c:v>0.23330000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,19 +1963,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4199999999999999E-2</c:v>
+                  <c:v>3.9199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4399999999999997E-2</c:v>
+                  <c:v>6.9399999999999989E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8800000000000004E-2</c:v>
+                  <c:v>0.1008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1565</c:v>
+                  <c:v>0.1615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2107</c:v>
+                  <c:v>0.22570000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,19 +2467,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4199999999999999E-2</c:v>
+                  <c:v>3.9199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4399999999999997E-2</c:v>
+                  <c:v>6.9399999999999989E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8800000000000004E-2</c:v>
+                  <c:v>0.1008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1565</c:v>
+                  <c:v>0.1615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2107</c:v>
+                  <c:v>0.22570000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,13 +2582,13 @@
                   <c:v>4.0099999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.43E-2</c:v>
+                  <c:v>8.0299999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.15640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2233</c:v>
+                  <c:v>0.23330000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5410,15 +5423,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>293641</xdr:rowOff>
+      <xdr:colOff>293316</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>213211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7341</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>168844</xdr:rowOff>
+      <xdr:colOff>36029</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>162127</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5443,6 +5456,1256 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>266433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>399650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>346363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF9316D-5FE2-4744-E423-D9F5B0EDED58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5941468"/>
+          <a:ext cx="4280699" cy="4147482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>Per a la detecció de la concentració de coure en una mostra d’orujo, utilitzem el model 55 AA de la marca Agilent, que permet quantificar la mostra mitjançant espectroscòpia d’absorció atòmica.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:br>
+            <a:rPr lang="en-GB" b="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>Com a font de llum, s’empra una làmpada de càtode buit multielemental que, en aquest cas, conté coure, és a dir, l’element objecte de l’anàlisi. Aquesta làmpada emet a longituds d’ona molt específiques; concretament, ens fixem en l’emissió a 324,7 nm. Aquesta longitud d’ona és absorbida pels àtoms de coure presents en la mostra, els quals s’exciten. Així, podem determinar la concentració de coure mitjançant la diferència d’intensitat entre una mostra sense coure (el blanc) i la mostra d’orujo.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:br>
+            <a:rPr lang="en-GB" b="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>Després de realitzar un calibratge amb solucions patró de concentració coneguda de coure, i mitjançant la llei de Lambert-Beer, podem quantificar la concentració de coure a partir d’una recta de regressió.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:br>
+            <a:rPr lang="en-GB" b="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>Nota: És essencial mantenir l’equip net i lliure de residus, ja que, en tractar-se d’una tècnica de quantificació atòmica, la presència d’interferències pot provocar desviacions significatives en els resultats.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1527550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>834823</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>195384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="https://www.boe.es/eli/es/rd/1982/05/28/1416"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0753EC95-3AA3-4CDD-9BE1-28ABAA8C9D29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7184823" y="10630698"/>
+          <a:ext cx="3960979" cy="2895245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Reial decret 14/16/1982, de 28 de maig, pel qual s'aprova la Reglamentació tecnicosanitària per a l'elaboració, la circulació i el comerç d'aiguardents compostos, licors, aperitius sense vi base i altres begudes derivades d'alcohols naturals. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>(Font: Boletín Oficial del Estado; https://www.boe.es/eli/es/rd/1982/05/28/1416)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" i="1"/>
+            <a:t>3.1 (2) - Estar exentos de materias extrañas a la composición legal y/o tradicional del producto y no contener residuos de metales pesados en cantidades mayores de las que se citan: Aguardiente - Cobre (en p.p.m.): 10 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66882DF-A10E-6D8C-A4A9-5E5570AF2A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10591799"/>
+          <a:ext cx="4428067" cy="3496734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>La mostra analitzada és una “aguardiente de orujo” de la marca "Pazo de Usía", amb un contingut alcohòlic del 40% en volum. El producte no especifica la concentració de coure present i pertany al lot L-J 5102</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>La presència del coure en aquest tipus de begudes sol ser deguda al fet que sovint es fan servir tubs de coure en el procés de destil·lació, la qual cosa comporta una contaminació mínima. Segons el Reial decret 14/16/1982, la concentració màxima permesa de coure en aiguardents com l’orujo és de 10 ppm. Ara bé, els nivells de coure s’han reduït considerablement en els darrers anys gràcies a millores en els processos de fabricació. S'espera una concentració de coure significativament inferior a 10 ppm, doncs aquesta regulació porta vigent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> desde 1982 (fa 43 anys3333)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>135465</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>262467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>745066</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A646F5-25EF-BE7A-B7E9-769A939BCB94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9567332" y="2192867"/>
+          <a:ext cx="5088467" cy="1871133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>Aquesta estimació parteix de la hipòtesi que el sulfat de coure es troba completament en la seva forma pentahidratada. Tanmateix, es realitzarà una valoració per determinar amb exactitud la concentració de coure present en el patró.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1464733</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1847273</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8203F95-3BE4-A067-274C-DF04B84EFEA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1464733" y="23765932"/>
+          <a:ext cx="8256540" cy="2349886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>Durant la presa de mesures, l’espectrofotòmetre d’absorció atòmica (AAS) realitza tres replicats per a cada solució analitzada. Tot i això, les mesures només difereixen en ±0,0006 unitats de senyal, i es pren el valor mitjà com a representatiu. Es podria argumentar que un nombre més elevat de replicats proporcionaria un valor mitjà més robust. Tanmateix, obtenim un coeficient de correlació de Pearson (r²) de 0,9997, un valor altament satisfactori que justifica no incrementar el nombre de mesures per mostra.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>El procediment, a grans trets, consisteix a elaborar una corba de calibratge a partir de patrons de concentració coneguda, mesurar la senyal corresponent a cada patró, calcular una recta de regressió per mínims quadrats i interpolar la senyal de la mostra per obtenir-ne la concentració.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Mitjançant aquest mètode, s’obté una concentració </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>de (0,2 ± 0,1) ppm </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>per a la mostra analitzada. Cal destacar, però, que aquesta concentració es troba a la part més baixa de l’interval de calibratge, fet que contribueix a un interval de confiança relativament ampli. Hauríem obtingut resultats més precisos si el calibratge s’hagués fet amb patrons de concentracions més baixes, per exemple, sense superar 1 ppm.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1401606</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>13508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>6756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3035F6-39B1-75E1-87E7-9D6ABEBBE98C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1401606" y="34862834"/>
+          <a:ext cx="8343835" cy="2125269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>Les dades d’absorbància obtingudes durant el calibratge amb patró extern en presència d’etanol com a interferent són superiors a les obtingudes en absència d’aquest compost. Això indica que la presència d’etanol a la mostra incrementa l’absorbància registrada per l’equip, tot i que la concentració de coure es manté constant.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" b="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>Aquest fenomen s’explica pel fet que l’etanol augmenta la volatilitat de la mostra i dels patrons. Com a conseqüència, el procés de nebulització durant la injecció és més eficient, i es genera una major quantitat d’aerosol que arriba al sistema de detecció, donant lloc a senyals més altes.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" b="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>La presència d’etanol, per tant, augmenta la sensibilitat del sistema, fet que es reflecteix en una pendent més pronunciada de la recta de calibratge. Tot i així, la diferència respecte al calibratge sense interferent no és gaire significativa, ja que la concentració obtinguda continua essent (0,2 ± 0,1) ppm, en concordança amb els resultats anteriors. Cal destacar també que el coeficient de correlació de Pearson és excel·lent, amb un r² = 0,9998.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1367118</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>7471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1852706</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE2E5AF-FBBA-6F90-D150-55DF08A3492E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1367118" y="45167177"/>
+          <a:ext cx="8038353" cy="1636058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>El mètode d’addició estàndard té en compte l’efecte matriu, fet que, a priori, el converteix en la tècnica que pot oferir els resultats més precisos. Tanmateix, en aquest cas, la diferència amb els mètodes de calibratge extern no és gaire significativa, ja que el resultat obtingut és el mateix.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" b="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>Aquest fet es pot explicar per una observació prèvia, l’interval de calibratge emprat no és representatiu de la concentració real de la mostra. Un calibratge més adequat, amb concentracions més baixes (per exemple, per sota d’1 ppm), hauria permès observar diferències més marcades entre els mètodes i obtenir resultats més precisos, amb intèrvals de confiança més petits.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" b="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>D’altra banda, cal remarcar que el mètode d’addició estàndard no és el més eficient en termes pràctics, ja que la preparació dels patrons implica més temps i recursos. Malgrat això, la recta de regressió obtinguda mostra un ajust lineal molt satisfactori (r² = 0,9993), i la concentració de coure obtinguda és coherent amb els resultats anteriors: (0,2 ± 0,1) ppm.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>16531</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>279008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63051</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>1067153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AA0331-4103-CE68-D754-7EEBC9D3D34F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16531" y="59766161"/>
+          <a:ext cx="7922284" cy="3866131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>En primer lloc, observem que tots els mètodes utilitzats han donat lloc al mateix resultat pel que fa a la concentració de coure. Els pendents obtinguts amb el calibratge extern, tant amb com sense interferent, són similars, tot i que la mostra amb etanol presenta una pendent lleugerament superior.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" b="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>La presència d’etanol no interfereix directament amb l’absorció de radiació del coure ni amb la seva detecció. No obstant això, afavoreix la volatilització de la mostra, fet que millora l’eficiència del procés de nebulització i augmenta la quantitat d’àtoms en estat fonamental en fase gasosa, que és l’estat en què poden ser detectats per l’espectrofotòmetre.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" b="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>Així doncs, el calibratge amb patrons externs en presència d’etanol mostra una sensibilitat més alta i, mantenint constants les condicions experimentals, es pot considerar que ofereix millors resultats que el calibratge sense interferent.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" b="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>Tot i això, el mètode més precís des del punt de vista teòric és el d’addició estàndard, ja que és l’únic que té en compte els efectes de la matriu. En aquest cas concret, no s’han observat diferències significatives en els resultats numèrics degut al fet que tots els calibratges s’han realitzat en un interval de concentració massa elevat, poc representatiu de la mostra.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" b="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>Cal destacar que la comparació directa entre les rectes de calibratge dels mètodes de patró extern i d’addició estàndard no és del tot adequada, ja que en el primer cas la concentració s’obté per interpolació, mentre que en el segon es determina a partir de l’ordenada a l’origen,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" b="0" baseline="0"/>
+            <a:t> és a dir no representen el mateix.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="0"/>
+            <a:t>En qualsevol cas, és remarcable que els resultats obtinguts amb tots els mètodes han estat consistents i molt similars, la qual cosa reforça la validesa de les dades i la fiabilitat del procés analític.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AA254D-30A8-996D-13F7-C0E40D1F16BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10739120" y="52872640"/>
+          <a:ext cx="6502400" cy="447040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Donat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> que</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t> F_{exp} &lt; F_{crítica}, podem assumir igualtat de variàncies podem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> aplicar el </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>test t per comparar pendents.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>955040</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151FA7BE-BA89-6150-6A41-3E41C6DE0EC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11267440" y="50363120"/>
+          <a:ext cx="5923280" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t> A continuació, farem la comparició estadísitca entre els pendents extern (1) i addició estàndard (2).</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>264160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F5B9C4-F581-91FD-3607-05F693E8B2F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11115040" y="56367680"/>
+          <a:ext cx="3576320" cy="1381760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Notem que t_{exp}&gt;t_{tab} i per tant aquestes pendents no són comparables.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>194027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2213681</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A5F6F0-8F9A-4C44-950B-94C7AB708158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1040694"/>
+          <a:ext cx="4739570" cy="2601737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>La mostra analitzada és una “aguardiente de orujo” de la marca "Pazo de Usía", amb un contingut alcohòlic del 40% en volum. El producte no especifica la concentració de coure present i pertany al lot L-J 5102</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>La presència del coure en aquest tipus de begudes sol ser deguda al fet que sovint es fan servir tubs de coure en el procés de destil·lació, la qual cosa comporta una contaminació mínima. Segons el Reial decret 14/16/1982, la concentració màxima permesa de coure en aiguardents com l’orujo és de 10 ppm. Ara bé, els nivells de coure s’han reduït considerablement en els darrers anys gràcies a millores en els processos de fabricació. S'espera una concentració de coure significativament inferior a 10 ppm, doncs aquesta regulació porta vigent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> desde 1982 (fa 43 anys3333)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1693334</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3529</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2151946</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA7649D-2FCF-7041-9712-9A4726B08BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5882570" y="1093612"/>
+          <a:ext cx="4739570" cy="2487084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>La mostra analitzada és una “aguardiente de orujo” de la marca "Pazo de Usía", amb un contingut alcohòlic del 40% en volum. El producte no especifica la concentració de coure present i pertany al lot L-J 5102</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>La presència del coure en aquest tipus de begudes sol ser deguda al fet que sovint es fan servir tubs de coure en el procés de destil·lació, la qual cosa comporta una contaminació mínima. Segons el Reial decret 14/16/1982, la concentració màxima permesa de coure en aiguardents com l’orujo és de 10 ppm. Ara bé, els nivells de coure s’han reduït considerablement en els darrers anys gràcies a millores en els processos de fabricació. S'espera una concentració de coure significativament inferior a 10 ppm, doncs aquesta regulació porta vigent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> desde 1982 (fa 43 anys3333)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5745,15 +7008,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953B08C8-5267-41A1-8A30-44F36ECBD8D8}">
-  <dimension ref="A1:K168"/>
+  <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" zoomScale="143" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" style="2" customWidth="1"/>
@@ -5812,7 +7075,7 @@
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5821,9 +7084,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>85</v>
-      </c>
+      <c r="G10"/>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -5835,16 +7096,14 @@
       <c r="D11" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="19">
         <f>10^3*B11*E13/(E12*B12)</f>
         <v>1.0013231968280032</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
+      <c r="G11"/>
       <c r="J11"/>
       <c r="K11"/>
     </row>
@@ -5864,9 +7123,7 @@
       <c r="F12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
+      <c r="G12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -5881,9 +7138,7 @@
       <c r="F13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
+      <c r="G13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -5939,7 +7194,7 @@
       <c r="J16"/>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15.4</v>
       </c>
@@ -5948,7 +7203,7 @@
         <v>978.60839999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15.5</v>
       </c>
@@ -5957,12 +7212,12 @@
         <v>984.96300000000008</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>50</v>
       </c>
@@ -5973,144 +7228,162 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" spans="1:4" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" ht="107" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
     </row>
     <row r="34" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="F34" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
     </row>
     <row r="35" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
     </row>
     <row r="36" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
     </row>
     <row r="37" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
     </row>
     <row r="38" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
     </row>
     <row r="39" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
@@ -6138,10 +7411,10 @@
       <c r="E45" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="I45" s="36"/>
+      <c r="I45" s="51"/>
     </row>
     <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
@@ -6371,16 +7644,16 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B56" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="33"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="24" t="s">
         <v>43</v>
       </c>
@@ -6390,14 +7663,14 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="33"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="24" t="s">
         <v>30</v>
       </c>
@@ -6459,24 +7732,22 @@
       <c r="F69" s="15"/>
     </row>
     <row r="71" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="41"/>
-    </row>
-    <row r="72" spans="1:11" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="30"/>
+    </row>
+    <row r="72" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="41"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="32"/>
     </row>
     <row r="73" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
@@ -6502,10 +7773,10 @@
       <c r="F75" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I75" s="38" t="s">
+      <c r="I75" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="J75" s="39"/>
+      <c r="J75" s="47"/>
     </row>
     <row r="76" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -6533,10 +7804,10 @@
       </c>
       <c r="I76" s="1" cm="1">
         <f t="array" ref="I76:J80">LINEST(E76:E80,A76:A80,1,1)</f>
-        <v>7.5854916539198014E-2</v>
+        <v>7.9177791651931465E-2</v>
       </c>
       <c r="J76" s="1">
-        <v>4.0813266041817148E-3</v>
+        <v>9.7966834895460431E-4</v>
       </c>
       <c r="K76" s="24" t="s">
         <v>30</v>
@@ -6567,10 +7838,10 @@
         <v>62</v>
       </c>
       <c r="I77" s="1">
-        <v>2.253603734216477E-3</v>
+        <v>5.7945673949030818E-4</v>
       </c>
       <c r="J77" s="1">
-        <v>3.7325038891011719E-3</v>
+        <v>9.5971820638885352E-4</v>
       </c>
       <c r="K77" s="24" t="s">
         <v>63</v>
@@ -6591,7 +7862,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="8">
-        <v>8.43E-2</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="F78" s="18">
         <f>$E$15*0.01</f>
@@ -6601,10 +7872,10 @@
         <v>52</v>
       </c>
       <c r="I78" s="1">
-        <v>0.99735904850766433</v>
+        <v>0.99983934777450756</v>
       </c>
       <c r="J78" s="1">
-        <v>5.2058749833919539E-3</v>
+        <v>1.3385580163316753E-3</v>
       </c>
       <c r="K78" s="24" t="s">
         <v>53</v>
@@ -6635,7 +7906,7 @@
         <v>54</v>
       </c>
       <c r="I79" s="1">
-        <v>1132.9542228270402</v>
+        <v>18670.877631038969</v>
       </c>
       <c r="J79" s="1">
         <v>3</v>
@@ -6659,7 +7930,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="8">
-        <v>0.2233</v>
+        <v>0.23330000000000001</v>
       </c>
       <c r="F80" s="18">
         <f t="shared" si="3"/>
@@ -6669,10 +7940,10 @@
         <v>56</v>
       </c>
       <c r="I80" s="1">
-        <v>3.070434459697188E-2</v>
+        <v>3.3453312787310743E-2</v>
       </c>
       <c r="J80" s="1">
-        <v>8.1303403028118519E-5</v>
+        <v>5.3752126892573688E-6</v>
       </c>
       <c r="K80" s="24" t="s">
         <v>57</v>
@@ -6690,7 +7961,7 @@
       </c>
       <c r="J82" s="1">
         <f>AVERAGE(E76:E80)</f>
-        <v>0.10228000000000001</v>
+        <v>0.10348000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6722,22 +7993,22 @@
         <v>1</v>
       </c>
       <c r="C84" s="8">
-        <v>1.8499999999999999E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="D84" s="19">
         <f>(C84-J76)/I76</f>
-        <v>0.19008225245844726</v>
+        <v>0.23390816117304036</v>
       </c>
       <c r="E84" s="19">
         <f>J84*J85</f>
-        <v>0.26105185276109522</v>
+        <v>6.3904400230291536E-2</v>
       </c>
       <c r="I84" s="24" t="s">
         <v>59</v>
       </c>
       <c r="J84" s="1">
         <f>F86/I76*SQRT(1+1/F87+(C84-J82)^2/(I76^2*J83))</f>
-        <v>8.2028674710922719E-2</v>
+        <v>2.0080276020429062E-2</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6750,33 +8021,33 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B86" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C86" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="33"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="24" t="s">
         <v>43</v>
       </c>
       <c r="F86" s="1">
         <f>J78</f>
-        <v>5.2058749833919539E-3</v>
+        <v>1.3385580163316753E-3</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="35"/>
+      <c r="A87" s="45"/>
       <c r="B87" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C87" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="33"/>
+      <c r="D87" s="43"/>
       <c r="E87" s="24" t="s">
         <v>30</v>
       </c>
@@ -6821,15 +8092,15 @@
       <c r="A96" s="12"/>
       <c r="F96" s="13"/>
     </row>
-    <row r="97" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="F97" s="13"/>
     </row>
-    <row r="98" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
       <c r="F98" s="13"/>
     </row>
-    <row r="99" spans="1:11" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -6837,48 +8108,48 @@
       <c r="E99" s="14"/>
       <c r="F99" s="15"/>
     </row>
-    <row r="101" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="38" t="s">
+    <row r="101" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49"/>
-    </row>
-    <row r="102" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="47"/>
-      <c r="B102" s="49"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
-    </row>
-    <row r="103" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
-    </row>
-    <row r="104" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
-    </row>
-    <row r="105" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="38"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+    </row>
+    <row r="102" spans="1:13" ht="145" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="41"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+    </row>
+    <row r="103" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="54"/>
+    </row>
+    <row r="104" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+    </row>
+    <row r="105" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M105" s="52"/>
+    </row>
+    <row r="106" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M106" s="52"/>
+    </row>
+    <row r="107" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="24" t="s">
         <v>18</v>
       </c>
@@ -6897,12 +8168,13 @@
       <c r="F107" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I107" s="34" t="s">
+      <c r="I107" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="J107" s="34"/>
-    </row>
-    <row r="108" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J107" s="44"/>
+      <c r="M107" s="52"/>
+    </row>
+    <row r="108" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17">
         <f>F108*B108/C108</f>
         <v>3.9229064000000001E-2</v>
@@ -6917,7 +8189,7 @@
         <v>10</v>
       </c>
       <c r="E108" s="8">
-        <v>2.4199999999999999E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="F108" s="18">
         <f>$E$15*0.001</f>
@@ -6928,16 +8200,17 @@
       </c>
       <c r="I108" s="1" cm="1">
         <f t="array" ref="I108:J112">LINEST(E108:E112,A108:A112,1,1)</f>
-        <v>0.16441983038460142</v>
+        <v>0.16173653521613307</v>
       </c>
       <c r="J108" s="1">
-        <v>2.1779524152847896E-2</v>
+        <v>3.5568997837058428E-2</v>
       </c>
       <c r="K108" s="24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M108" s="53"/>
+    </row>
+    <row r="109" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17">
         <f>F109*B109/C109</f>
         <v>0.19614532000000001</v>
@@ -6952,7 +8225,7 @@
         <v>10</v>
       </c>
       <c r="E109" s="8">
-        <v>5.4399999999999997E-2</v>
+        <v>6.9399999999999989E-2</v>
       </c>
       <c r="F109" s="18">
         <f>$E$15*0.001</f>
@@ -6962,16 +8235,17 @@
         <v>62</v>
       </c>
       <c r="I109" s="1">
-        <v>5.4622961085484039E-3</v>
+        <v>2.496189119342824E-3</v>
       </c>
       <c r="J109" s="1">
-        <v>3.6187447081361067E-3</v>
+        <v>1.6537131980070004E-3</v>
       </c>
       <c r="K109" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M109" s="53"/>
+    </row>
+    <row r="110" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17">
         <f>F110*B110/C110</f>
         <v>0.39229064000000002</v>
@@ -6986,7 +8260,7 @@
         <v>10</v>
       </c>
       <c r="E110" s="8">
-        <v>8.8800000000000004E-2</v>
+        <v>0.1008</v>
       </c>
       <c r="F110" s="18">
         <f>$E$15*0.01</f>
@@ -6996,16 +8270,17 @@
         <v>52</v>
       </c>
       <c r="I110" s="1">
-        <v>0.99669989502955902</v>
+        <v>0.99928591530977529</v>
       </c>
       <c r="J110" s="1">
-        <v>5.0472104268602259E-3</v>
+        <v>2.3065010574665193E-3</v>
       </c>
       <c r="K110" s="24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M110" s="53"/>
+    </row>
+    <row r="111" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17">
         <f t="shared" ref="A111:A112" si="4">F111*B111/C111</f>
         <v>0.78458128000000005</v>
@@ -7020,7 +8295,7 @@
         <v>10</v>
       </c>
       <c r="E111" s="8">
-        <v>0.1565</v>
+        <v>0.1615</v>
       </c>
       <c r="F111" s="18">
         <f t="shared" ref="F111:F112" si="5">$E$15*0.01</f>
@@ -7030,7 +8305,7 @@
         <v>54</v>
       </c>
       <c r="I111" s="1">
-        <v>906.06199253386728</v>
+        <v>4198.1823542326692</v>
       </c>
       <c r="J111" s="1">
         <v>3</v>
@@ -7038,8 +8313,9 @@
       <c r="K111" s="24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M111" s="53"/>
+    </row>
+    <row r="112" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17">
         <f t="shared" si="4"/>
         <v>1.1768719200000002</v>
@@ -7054,7 +8330,7 @@
         <v>10</v>
       </c>
       <c r="E112" s="8">
-        <v>0.2107</v>
+        <v>0.22570000000000001</v>
       </c>
       <c r="F112" s="18">
         <f t="shared" si="5"/>
@@ -7064,31 +8340,33 @@
         <v>56</v>
       </c>
       <c r="I112" s="1">
-        <v>2.3081325000720979E-2</v>
+        <v>2.233410815861572E-2</v>
       </c>
       <c r="J112" s="1">
-        <v>7.6422999279019755E-5</v>
+        <v>1.5959841384282515E-5</v>
       </c>
       <c r="K112" s="24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M112" s="53"/>
+    </row>
+    <row r="113" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
       <c r="D113" s="21"/>
       <c r="E113" s="21"/>
-    </row>
-    <row r="114" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M113" s="52"/>
+    </row>
+    <row r="114" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I114" s="24" t="s">
         <v>73</v>
       </c>
       <c r="J114" s="1">
         <f>AVERAGE(E108:E112)</f>
-        <v>0.10691999999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.11932000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="24" t="s">
         <v>22</v>
       </c>
@@ -7109,7 +8387,7 @@
         <v>0.85379251769297104</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="25" t="s">
         <v>26</v>
       </c>
@@ -7118,25 +8396,25 @@
       </c>
       <c r="C116" s="20">
         <f>J108</f>
-        <v>2.1779524152847896E-2</v>
+        <v>3.5568997837058428E-2</v>
       </c>
       <c r="D116" s="19">
         <f>J108/I108</f>
-        <v>0.13246287933701478</v>
+        <v>0.21991937560382741</v>
       </c>
       <c r="E116" s="19">
         <f>J116*J117</f>
-        <v>0.12020698861156887</v>
+        <v>5.584419366619444E-2</v>
       </c>
       <c r="I116" s="24" t="s">
         <v>59</v>
       </c>
       <c r="J116" s="1">
         <f>F118/I108*SQRT(1+1/F119+(C116-J114)^2/(I108^2*J115))</f>
-        <v>3.7771882721789593E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.7547568225574833E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I117" s="24" t="s">
         <v>60</v>
       </c>
@@ -7145,34 +8423,34 @@
         <v>3.1824463052837091</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="34" t="s">
+    <row r="118" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B118" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="32" t="s">
+      <c r="C118" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D118" s="33"/>
+      <c r="D118" s="43"/>
       <c r="E118" s="24" t="s">
         <v>43</v>
       </c>
       <c r="F118" s="1">
         <f>J110</f>
-        <v>5.0472104268602259E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="35"/>
+        <v>2.3065010574665193E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="45"/>
       <c r="B119" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C119" s="32" t="s">
+      <c r="C119" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D119" s="33"/>
+      <c r="D119" s="43"/>
       <c r="E119" s="24" t="s">
         <v>30</v>
       </c>
@@ -7181,39 +8459,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12"/>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12"/>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="F122" s="13"/>
     </row>
-    <row r="123" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="F123" s="13"/>
     </row>
-    <row r="124" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
       <c r="F124" s="13"/>
     </row>
-    <row r="125" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
       <c r="F125" s="13"/>
     </row>
-    <row r="126" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12"/>
       <c r="F126" s="13"/>
     </row>
-    <row r="127" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
       <c r="F127" s="13"/>
     </row>
-    <row r="128" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12"/>
       <c r="F128" s="13"/>
     </row>
@@ -7234,24 +8512,22 @@
       <c r="F131" s="15"/>
     </row>
     <row r="133" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="45" t="s">
+      <c r="A133" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B133" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C133" s="40"/>
-      <c r="D133" s="40"/>
-      <c r="E133" s="40"/>
-      <c r="F133" s="41"/>
-    </row>
-    <row r="134" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="46"/>
-      <c r="B134" s="42"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="42"/>
-      <c r="E134" s="42"/>
-      <c r="F134" s="43"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="30"/>
+    </row>
+    <row r="134" spans="1:6" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="34"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="32"/>
     </row>
     <row r="137" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
@@ -7289,11 +8565,11 @@
       <c r="B141" s="10"/>
       <c r="C141" s="19">
         <f>D84</f>
-        <v>0.19008225245844726</v>
+        <v>0.23390816117304036</v>
       </c>
       <c r="D141" s="19">
         <f>E84</f>
-        <v>0.26105185276109522</v>
+        <v>6.3904400230291536E-2</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7303,11 +8579,11 @@
       <c r="B142" s="10"/>
       <c r="C142" s="19">
         <f>D116</f>
-        <v>0.13246287933701478</v>
+        <v>0.21991937560382741</v>
       </c>
       <c r="D142" s="19">
         <f>E116</f>
-        <v>0.12020698861156887</v>
+        <v>5.584419366619444E-2</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7315,96 +8591,293 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G147" s="2" t="s">
+    <row r="148" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G148" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G149" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H149" s="2">
+        <f>I48</f>
+        <v>2.7625005913018393E-3</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K149" s="2">
+        <f>F57</f>
+        <v>5</v>
+      </c>
+      <c r="M149" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
+      <c r="N149" s="2">
+        <f>K149-2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G150" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H150" s="2">
+        <f>J110</f>
+        <v>2.3065010574665193E-3</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K150" s="2">
+        <f>F119</f>
+        <v>5</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N150" s="2">
+        <f>K150-2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G152" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H152" s="2">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G153" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H153" s="2">
+        <f>H149^2/H150^2</f>
+        <v>1.4344897295392678</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B160" s="1">
+        <f>((K149-2)*H149^2+(K150-2)*H150^2)/(K149+K150-4)</f>
+        <v>6.4756783225185921E-6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B161" s="1">
+        <f>SQRT(B160)*SQRT(1/C165+1/C166)</f>
+        <v>2.9661660239051154E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="52"/>
+      <c r="B162" s="52"/>
+    </row>
+    <row r="163" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C165" s="1">
+        <f>I53</f>
+        <v>5.3362032355810687</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C166" s="1">
+        <f>J115</f>
+        <v>0.85379251769297104</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E169" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F169" s="1">
+        <f>ABS(C170-C171)/B161</f>
+        <v>13.783774684323559</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C170" s="17">
+        <f>H46</f>
+        <v>0.12085157106632907</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C171" s="1">
+        <f>I108</f>
+        <v>0.16173653521613307</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F171" s="1">
+        <f>K149+K150-4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="55"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="55"/>
+      <c r="D172" s="55"/>
+      <c r="E172" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F172" s="1">
+        <v>2.4470000000000001</v>
+      </c>
+      <c r="G172" s="55"/>
+      <c r="H172" s="55"/>
+      <c r="I172" s="55"/>
+      <c r="J172" s="55"/>
+      <c r="K172" s="55"/>
+      <c r="L172" s="55"/>
+      <c r="M172" s="55"/>
+    </row>
+    <row r="173" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="55"/>
+      <c r="B173" s="55"/>
+      <c r="C173" s="55"/>
+      <c r="D173" s="55"/>
+      <c r="E173" s="52"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="55"/>
+      <c r="H173" s="55"/>
+      <c r="I173" s="55"/>
+      <c r="J173" s="55"/>
+      <c r="K173" s="55"/>
+      <c r="L173" s="55"/>
+      <c r="M173" s="55"/>
+    </row>
+    <row r="174" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-    </row>
-    <row r="160" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="29"/>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-    </row>
-    <row r="161" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="29"/>
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-    </row>
-    <row r="162" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="29"/>
-      <c r="B162" s="29"/>
-      <c r="C162" s="29"/>
-      <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
-    </row>
-    <row r="163" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-    </row>
-    <row r="164" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
-    </row>
-    <row r="165" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="29"/>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-    </row>
-    <row r="166" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="29"/>
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-    </row>
-    <row r="168" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+    <row r="175" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="35"/>
+      <c r="B175" s="36"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="36"/>
+    </row>
+    <row r="176" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="36"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="36"/>
+    </row>
+    <row r="177" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="36"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="36"/>
+      <c r="D177" s="36"/>
+      <c r="E177" s="36"/>
+    </row>
+    <row r="178" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="36"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="36"/>
+      <c r="D178" s="36"/>
+      <c r="E178" s="36"/>
+    </row>
+    <row r="179" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="36"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="36"/>
+      <c r="D179" s="36"/>
+      <c r="E179" s="36"/>
+    </row>
+    <row r="180" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="36"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="36"/>
+      <c r="D180" s="36"/>
+      <c r="E180" s="36"/>
+    </row>
+    <row r="181" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="36"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="36"/>
+      <c r="E181" s="36"/>
+    </row>
+    <row r="182" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="36"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
+      <c r="E182" s="36"/>
+    </row>
+    <row r="183" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B168" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="C168" s="50"/>
-      <c r="D168" s="50"/>
-      <c r="E168" s="10" t="s">
+      <c r="B184" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C184" s="37"/>
+      <c r="D184" s="37"/>
+      <c r="E184" s="10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B133:F134"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A159:E166"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B101:F102"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B103:F104"/>
+  <mergeCells count="24">
+    <mergeCell ref="A33:D40"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:I39"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="H45:I45"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A56:A57"/>
@@ -7417,12 +8890,13 @@
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="B71:F72"/>
     <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A24:D31"/>
-    <mergeCell ref="A33:D40"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:I39"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B133:F134"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A175:E182"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B101:F102"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B103:F104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
